--- a/Fake Folder copy/Finance/Recurring/Forecasts/CSVs/Input/2019 - 02 - Feb - The Pillars Monthly - for R.xlsx
+++ b/Fake Folder copy/Finance/Recurring/Forecasts/CSVs/Input/2019 - 02 - Feb - The Pillars Monthly - for R.xlsx
@@ -1266,13 +1266,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1980397.400000024</v>
+        <v>1980618.500000024</v>
       </c>
       <c r="C50">
-        <v>874572.7399999994</v>
+        <v>874793.8399999994</v>
       </c>
       <c r="D50">
-        <v>-1105824.660000024</v>
+        <v>-1105824.660000025</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1280,10 +1280,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>3532349.810000025</v>
+        <v>3532548.260000025</v>
       </c>
       <c r="C51">
-        <v>3552629.280000001</v>
+        <v>3552827.730000001</v>
       </c>
       <c r="D51">
         <v>20279.46999997646</v>
@@ -1294,13 +1294,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>3692934.600000019</v>
+        <v>3693233.070000019</v>
       </c>
       <c r="C52">
-        <v>4917929.740000003</v>
+        <v>4918228.210000003</v>
       </c>
       <c r="D52">
-        <v>1224995.139999984</v>
+        <v>1224995.139999983</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1308,10 +1308,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>3861098.880000019</v>
+        <v>3861306.660000019</v>
       </c>
       <c r="C53">
-        <v>3641583.700000002</v>
+        <v>3641791.480000002</v>
       </c>
       <c r="D53">
         <v>-219515.1800000169</v>
@@ -1322,10 +1322,10 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>3630850.010000024</v>
+        <v>3631088.650000024</v>
       </c>
       <c r="C54">
-        <v>4004447.450000001</v>
+        <v>4004686.090000001</v>
       </c>
       <c r="D54">
         <v>373597.4399999771</v>
@@ -1336,10 +1336,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>4378231.099999677</v>
+        <v>4378487.349999677</v>
       </c>
       <c r="C55">
-        <v>3640219.259999999</v>
+        <v>3640475.509999999</v>
       </c>
       <c r="D55">
         <v>-738011.8399996781</v>
@@ -1350,13 +1350,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>3702127.020000018</v>
+        <v>3702174.690000018</v>
       </c>
       <c r="C56">
-        <v>3786485.260000001</v>
+        <v>3786608.930000001</v>
       </c>
       <c r="D56">
-        <v>84358.23999998253</v>
+        <v>84434.23999998253</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1364,13 +1364,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>2743375.75000002</v>
+        <v>2743515.91000002</v>
       </c>
       <c r="C57">
-        <v>3733353.279999999</v>
+        <v>3733493.439999999</v>
       </c>
       <c r="D57">
-        <v>989977.5299999784</v>
+        <v>989977.5299999788</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1378,10 +1378,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>3592879.290000027</v>
+        <v>3593066.980000027</v>
       </c>
       <c r="C58">
-        <v>3176332.349999998</v>
+        <v>3176520.039999998</v>
       </c>
       <c r="D58">
         <v>-416546.9400000288</v>
@@ -1392,10 +1392,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>3699365.580000018</v>
+        <v>3699535.670000018</v>
       </c>
       <c r="C59">
-        <v>3926072.87</v>
+        <v>3926242.96</v>
       </c>
       <c r="D59">
         <v>226707.2899999823</v>
@@ -1406,10 +1406,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>3473747.890000036</v>
+        <v>3473911.260000036</v>
       </c>
       <c r="C60">
-        <v>3813497.769999999</v>
+        <v>3813661.139999999</v>
       </c>
       <c r="D60">
         <v>339749.8799999631</v>
@@ -1420,13 +1420,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>4177624.62</v>
+        <v>4179136.699999997</v>
       </c>
       <c r="C61">
-        <v>4114200.810000001</v>
+        <v>4115712.89</v>
       </c>
       <c r="D61">
-        <v>-63423.80999999959</v>
+        <v>-63423.80999999726</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1437,10 +1437,10 @@
         <v>2190035.450000015</v>
       </c>
       <c r="C62">
-        <v>3482090.31</v>
+        <v>3579667.69</v>
       </c>
       <c r="D62">
-        <v>1292054.859999985</v>
+        <v>1389632.239999985</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1448,13 +1448,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>2690377.340000012</v>
+        <v>2909416.720000023</v>
       </c>
       <c r="C63">
-        <v>1076049.87</v>
+        <v>3333668.99</v>
       </c>
       <c r="D63">
-        <v>-1614327.470000012</v>
+        <v>424252.2699999772</v>
       </c>
     </row>
   </sheetData>
